--- a/temp/stock-price.xlsx
+++ b/temp/stock-price.xlsx
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="11">
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
     <t xml:space="preserve">companyCode</t>
   </si>
   <si>
@@ -38,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outstandingShares </t>
   </si>
   <si>
     <t xml:space="preserve">sbi</t>
@@ -135,16 +135,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -164,20 +164,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -196,750 +196,748 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
+      <c r="A2" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>123.11</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>44021</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G2" s="3"/>
+      <c r="E2" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
+      <c r="A3" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>126.32</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>44022</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G3" s="3"/>
+      <c r="E3" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>800</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
+      <c r="A4" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>125.34</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>44023</v>
       </c>
-      <c r="F4" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E4" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
+      <c r="A5" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>136.14</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <v>44024</v>
       </c>
-      <c r="F5" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E5" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>3200</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
+      <c r="A6" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>111.11</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="D6" s="2" t="n">
         <v>44025</v>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E6" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>8000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>132.32</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="D7" s="2" t="n">
         <v>44026</v>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E7" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
+      <c r="A8" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>122.33</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="D8" s="2" t="n">
         <v>44027</v>
       </c>
-      <c r="F8" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E8" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
+      <c r="A9" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>144.22</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="D9" s="2" t="n">
         <v>44028</v>
       </c>
-      <c r="F9" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E9" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
+      <c r="A10" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>99.22</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="D10" s="2" t="n">
         <v>44029</v>
       </c>
-      <c r="F10" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E10" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
+      <c r="A11" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>103.22</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="D11" s="2" t="n">
         <v>44030</v>
       </c>
-      <c r="F11" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E11" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>3200</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>11</v>
+      <c r="A12" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>128.24</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="D12" s="2" t="n">
         <v>44031</v>
       </c>
-      <c r="F12" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E12" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>8000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>12</v>
+      <c r="A13" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>142.15</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="D13" s="2" t="n">
         <v>44032</v>
       </c>
-      <c r="F13" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E13" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>13</v>
+      <c r="A14" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>104.23</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="D14" s="2" t="n">
         <v>44021</v>
       </c>
-      <c r="F14" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E14" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>14</v>
+      <c r="A15" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>153.12</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="D15" s="2" t="n">
         <v>44022</v>
       </c>
-      <c r="F15" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E15" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>15</v>
+      <c r="A16" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>124.13</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="D16" s="2" t="n">
         <v>44023</v>
       </c>
-      <c r="F16" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E16" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>16</v>
+      <c r="A17" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>127.24</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="D17" s="2" t="n">
         <v>44024</v>
       </c>
-      <c r="F17" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E17" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>3200</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>17</v>
+      <c r="A18" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>149.23</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="D18" s="2" t="n">
         <v>44025</v>
       </c>
-      <c r="F18" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E18" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>8000</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>18</v>
+      <c r="A19" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>137.29</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="D19" s="2" t="n">
         <v>44026</v>
       </c>
-      <c r="F19" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E19" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>19</v>
+      <c r="A20" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" s="0" t="n">
         <v>149.14</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="D20" s="2" t="n">
         <v>44027</v>
       </c>
-      <c r="F20" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E20" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>20</v>
+      <c r="A21" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>157.19</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="D21" s="2" t="n">
         <v>44028</v>
       </c>
-      <c r="F21" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E21" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>21</v>
+      <c r="A22" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>168.68</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="D22" s="2" t="n">
         <v>44029</v>
       </c>
-      <c r="F22" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E22" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>22</v>
+      <c r="A23" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>143.13</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="D23" s="2" t="n">
         <v>44030</v>
       </c>
-      <c r="F23" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E23" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>3200</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>23</v>
+      <c r="A24" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C24" s="0" t="n">
         <v>153.26</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="D24" s="2" t="n">
         <v>44031</v>
       </c>
-      <c r="F24" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E24" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>8000</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>24</v>
+      <c r="A25" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>149.3</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="D25" s="2" t="n">
         <v>44032</v>
       </c>
-      <c r="F25" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E25" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>25</v>
+      <c r="A26" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>131.39</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="D26" s="2" t="n">
         <v>44020</v>
       </c>
-      <c r="F26" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E26" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>26</v>
+      <c r="A27" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>125.34</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="D27" s="2" t="n">
         <v>44021</v>
       </c>
-      <c r="F27" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E27" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>27</v>
+      <c r="A28" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>136.14</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="D28" s="2" t="n">
         <v>44022</v>
       </c>
-      <c r="F28" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E28" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>28</v>
+      <c r="A29" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>111.11</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="D29" s="2" t="n">
         <v>44023</v>
       </c>
-      <c r="F29" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E29" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>3200</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>29</v>
+      <c r="A30" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" s="0" t="n">
         <v>132.32</v>
       </c>
-      <c r="E30" s="1" t="n">
+      <c r="D30" s="2" t="n">
         <v>44024</v>
       </c>
-      <c r="F30" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E30" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>8000</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>30</v>
+      <c r="A31" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" s="0" t="n">
         <v>128.24</v>
       </c>
-      <c r="E31" s="1" t="n">
+      <c r="D31" s="2" t="n">
         <v>44025</v>
       </c>
-      <c r="F31" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E31" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>31</v>
+      <c r="A32" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" s="0" t="n">
         <v>142.15</v>
       </c>
-      <c r="E32" s="1" t="n">
+      <c r="D32" s="2" t="n">
         <v>44026</v>
       </c>
-      <c r="F32" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E32" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>32</v>
+      <c r="A33" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C33" s="0" t="n">
         <v>127.24</v>
       </c>
-      <c r="E33" s="1" t="n">
+      <c r="D33" s="2" t="n">
         <v>44027</v>
       </c>
-      <c r="F33" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E33" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>33</v>
+      <c r="A34" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C34" s="0" t="n">
         <v>149.23</v>
       </c>
-      <c r="E34" s="1" t="n">
+      <c r="D34" s="2" t="n">
         <v>44028</v>
       </c>
-      <c r="F34" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E34" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>34</v>
+      <c r="A35" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" s="0" t="n">
         <v>168.68</v>
       </c>
-      <c r="E35" s="1" t="n">
+      <c r="D35" s="2" t="n">
         <v>44029</v>
       </c>
-      <c r="F35" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E35" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>3200</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>35</v>
+      <c r="A36" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" s="0" t="n">
         <v>153.26</v>
       </c>
-      <c r="E36" s="1" t="n">
+      <c r="D36" s="2" t="n">
         <v>44030</v>
       </c>
-      <c r="F36" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E36" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>8000</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>36</v>
+      <c r="A37" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C37" s="0" t="n">
         <v>149.3</v>
       </c>
-      <c r="E37" s="1" t="n">
+      <c r="D37" s="2" t="n">
         <v>44031</v>
       </c>
-      <c r="F37" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E37" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>37</v>
+      <c r="A38" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" s="0" t="n">
         <v>157.19</v>
       </c>
-      <c r="E38" s="1" t="n">
+      <c r="D38" s="2" t="n">
         <v>44032</v>
       </c>
-      <c r="F38" s="2" t="n">
-        <v>0.416666666666667</v>
+      <c r="E38" s="3" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>9000</v>
       </c>
     </row>
   </sheetData>
